--- a/strategy/online/PythonTrader_Terminal_sk.xlsx
+++ b/strategy/online/PythonTrader_Terminal_sk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STOCK\Capital_vercel_new\strategy\online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFAF05B-E6FF-4247-8C52-2C375199460C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC197F05-729B-414D-B114-D7C594F338C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1540,7 +1540,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1950,20 +1950,29 @@
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="N7" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="O7" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="R7" t="str">
-        <f t="shared" ref="R7:R16" si="6">IF(P7&gt;0,IF(O7="",(J7-P7),(Q7-P7))*L7,"")</f>
-        <v/>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>4</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <v>6</v>
       </c>
       <c r="T7">
-        <f t="shared" ref="T7:T9" si="7">IF(AND(S7&lt;&gt;"",S7&gt;=0,P7&gt;0),V7-S7,0)</f>
+        <f t="shared" ref="T7:T9" si="6">IF(AND(S7&lt;&gt;"",S7&gt;=0,P7&gt;0),V7-S7,0)</f>
         <v>0</v>
       </c>
       <c r="U7">
@@ -1988,11 +1997,11 @@
         <v/>
       </c>
       <c r="R8" t="str">
+        <f t="shared" ref="R7:R16" si="7">IF(P8&gt;0,IF(O8="",(J8-P8),(Q8-P8))*L8,"")</f>
+        <v/>
+      </c>
+      <c r="T8">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="T8">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U8">
@@ -2017,11 +2026,11 @@
         <v/>
       </c>
       <c r="R9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="T9">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="T9">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U9">
@@ -2046,7 +2055,7 @@
         <v/>
       </c>
       <c r="R10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T10">
@@ -2075,7 +2084,7 @@
         <v/>
       </c>
       <c r="R11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T11">
@@ -2104,7 +2113,7 @@
         <v/>
       </c>
       <c r="R12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T12">
@@ -2133,7 +2142,7 @@
         <v/>
       </c>
       <c r="R13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T13">
@@ -2158,7 +2167,7 @@
         <v/>
       </c>
       <c r="R14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T14">
@@ -2183,7 +2192,7 @@
         <v/>
       </c>
       <c r="R15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T15">
@@ -2208,7 +2217,7 @@
         <v/>
       </c>
       <c r="R16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T16">

--- a/strategy/online/PythonTrader_Terminal_sk.xlsx
+++ b/strategy/online/PythonTrader_Terminal_sk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STOCK\Capital_vercel_new\strategy\online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC197F05-729B-414D-B114-D7C594F338C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC11D2E-7376-431B-A899-9B25C35A6A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1540,7 +1540,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1997,7 +1997,7 @@
         <v/>
       </c>
       <c r="R8" t="str">
-        <f t="shared" ref="R7:R16" si="7">IF(P8&gt;0,IF(O8="",(J8-P8),(Q8-P8))*L8,"")</f>
+        <f t="shared" ref="R8:R16" si="7">IF(P8&gt;0,IF(O8="",(J8-P8),(Q8-P8))*L8,"")</f>
         <v/>
       </c>
       <c r="T8">
@@ -2088,7 +2088,7 @@
         <v/>
       </c>
       <c r="T11">
-        <f t="shared" si="9"/>
+        <f>IF(AND(S11&lt;&gt;"",S11&gt;=0,P11&gt;0),V11-S11,0)</f>
         <v>0</v>
       </c>
       <c r="U11">
